--- a/tools/patch-downloader/doc/g2nup.xlsx
+++ b/tools/patch-downloader/doc/g2nup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/_WORK/music-stack/tools/patch-downloader/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{550C619C-38CA-564E-908B-71198F152F25}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67DB617-625C-6C40-B844-749B4EC09FB5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16300" yWindow="3080" windowWidth="28040" windowHeight="17440" xr2:uid="{2D19A815-05D5-C843-9A0D-957E9B8F95B1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="40" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
   <si>
     <t>Module4</t>
   </si>
@@ -155,6 +155,33 @@
   </si>
   <si>
     <t>Lead</t>
+  </si>
+  <si>
+    <t>The crunch sound of the Marshall
+1959 that has given birth to many
+legends.</t>
+  </si>
+  <si>
+    <t>Marshall</t>
+  </si>
+  <si>
+    <t>The high gain sound of a Peavey
+5150 developed in cooperation
+with a world-famous hard rock
+guitarist.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Peavey</t>
+  </si>
+  <si>
+    <t xml:space="preserve">Aco.Sim (acoustic simulator) </t>
+  </si>
+  <si>
+    <t>This effect changes the tone of an electric guitar to make it sound like an acoustic guitar.
+PARM1 PARM2 P</t>
+  </si>
+  <si>
+    <t>Prm2</t>
   </si>
 </sst>
 </file>
@@ -191,19 +218,13 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment wrapText="1"/>
+      <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment vertical="center"/>
+      <alignment vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -519,298 +540,333 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{E744CB93-1679-0745-A21D-D0C8CFD74881}">
-  <dimension ref="A1:E35"/>
+  <dimension ref="A1:F37"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E34" sqref="E34"/>
+    <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
+      <selection activeCell="D37" sqref="D37"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="3" max="3" width="10.83203125" style="4"/>
-    <col min="4" max="4" width="24" style="4" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="34.33203125" customWidth="1"/>
+    <col min="1" max="3" width="10.83203125" style="1"/>
+    <col min="4" max="4" width="25.5" style="1" bestFit="1" customWidth="1"/>
+    <col min="5" max="5" width="34.33203125" style="1" customWidth="1"/>
+    <col min="6" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="A1" t="s">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="D1" s="4" t="s">
+      <c r="D1" s="1" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="2" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B2" t="s">
+    <row r="2" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B2" s="1" t="s">
         <v>1</v>
       </c>
-      <c r="D2" s="4" t="s">
+      <c r="D2" s="1" t="s">
         <v>2</v>
       </c>
     </row>
-    <row r="3" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C3" s="4">
+    <row r="3" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C3" s="1">
         <v>0</v>
       </c>
-      <c r="D3" s="4" t="s">
+      <c r="D3" s="1" t="s">
         <v>3</v>
       </c>
     </row>
-    <row r="4" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C4" s="4">
+    <row r="4" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C4" s="1">
         <v>1</v>
       </c>
-      <c r="D4" s="4" t="s">
+      <c r="D4" s="1" t="s">
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="B5" t="s">
+    <row r="5" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="B5" s="1" t="s">
         <v>5</v>
       </c>
-      <c r="D5" s="4" t="s">
+      <c r="D5" s="1" t="s">
         <v>6</v>
       </c>
     </row>
-    <row r="7" spans="1:5" s="2" customFormat="1" ht="51" x14ac:dyDescent="0.2">
-      <c r="C7" s="4">
+    <row r="7" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="C7" s="1">
         <v>0</v>
       </c>
-      <c r="D7" s="4" t="s">
+      <c r="D7" s="1" t="s">
         <v>8</v>
       </c>
-      <c r="E7" s="3" t="s">
+      <c r="E7" s="2" t="s">
         <v>9</v>
       </c>
     </row>
-    <row r="8" spans="1:5" ht="51" x14ac:dyDescent="0.2">
-      <c r="C8" s="4">
+    <row r="8" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="C8" s="1">
         <v>1</v>
       </c>
-      <c r="D8" s="4" t="s">
+      <c r="D8" s="1" t="s">
         <v>12</v>
       </c>
-      <c r="E8" s="1" t="s">
+      <c r="E8" s="2" t="s">
         <v>13</v>
       </c>
     </row>
-    <row r="9" spans="1:5" ht="34" x14ac:dyDescent="0.2">
-      <c r="C9" s="4">
+    <row r="9" spans="1:6" ht="34" x14ac:dyDescent="0.2">
+      <c r="C9" s="1">
         <v>2</v>
       </c>
-      <c r="D9" s="4" t="s">
+      <c r="D9" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="E9" s="1" t="s">
+      <c r="E9" s="2" t="s">
         <v>11</v>
       </c>
     </row>
-    <row r="10" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C10" s="4">
+    <row r="10" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C10" s="1">
         <v>3</v>
       </c>
-      <c r="D10" s="4" t="s">
+      <c r="D10" s="1" t="s">
         <v>14</v>
       </c>
     </row>
-    <row r="11" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C11" s="4">
+    <row r="11" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C11" s="1">
         <v>4</v>
       </c>
-      <c r="D11" s="4" t="s">
+      <c r="D11" s="1" t="s">
         <v>15</v>
       </c>
     </row>
-    <row r="12" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C12" s="4">
+    <row r="12" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="C12" s="1">
         <v>5</v>
       </c>
-      <c r="D12" s="4" t="s">
+      <c r="D12" s="1" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="13" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C13" s="4">
+      <c r="E12" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F12" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="13" spans="1:6" ht="51" x14ac:dyDescent="0.2">
+      <c r="C13" s="1">
         <v>6</v>
       </c>
-      <c r="D13" s="4" t="s">
+      <c r="D13" s="1" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="14" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C14" s="4">
+      <c r="E13" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="F13" s="1" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="14" spans="1:6" ht="68" x14ac:dyDescent="0.2">
+      <c r="C14" s="1">
         <v>7</v>
       </c>
-      <c r="D14" s="4" t="s">
+      <c r="D14" s="1" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="15" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C15" s="4">
+      <c r="E14" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="F14" s="1" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C15" s="1">
         <v>8</v>
       </c>
-      <c r="D15" s="4" t="s">
+      <c r="D15" s="1" t="s">
         <v>20</v>
       </c>
     </row>
-    <row r="16" spans="1:5" x14ac:dyDescent="0.2">
-      <c r="C16" s="4">
+    <row r="16" spans="1:6" x14ac:dyDescent="0.2">
+      <c r="C16" s="1">
         <v>9</v>
       </c>
-      <c r="D16" s="4" t="s">
+      <c r="D16" s="1" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="17" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C17" s="4">
+      <c r="C17" s="1">
         <v>10</v>
       </c>
-      <c r="D17" s="4" t="s">
+      <c r="D17" s="1" t="s">
         <v>22</v>
       </c>
     </row>
     <row r="18" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C18" s="4">
+      <c r="C18" s="1">
         <v>11</v>
       </c>
-      <c r="D18" s="4" t="s">
+      <c r="D18" s="1" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="19" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C19" s="4">
+      <c r="C19" s="1">
         <v>12</v>
       </c>
-      <c r="D19" s="4" t="s">
+      <c r="D19" s="1" t="s">
         <v>24</v>
       </c>
     </row>
     <row r="20" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C20" s="4">
+      <c r="C20" s="1">
         <v>13</v>
       </c>
-      <c r="D20" s="4" t="s">
+      <c r="D20" s="1" t="s">
         <v>25</v>
       </c>
     </row>
     <row r="21" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C21" s="4">
+      <c r="C21" s="1">
         <v>14</v>
       </c>
-      <c r="D21" s="4" t="s">
+      <c r="D21" s="1" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="22" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C22" s="4">
+      <c r="C22" s="1">
         <v>15</v>
       </c>
-      <c r="D22" s="4" t="s">
+      <c r="D22" s="1" t="s">
         <v>27</v>
       </c>
     </row>
     <row r="23" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C23" s="4">
+      <c r="C23" s="1">
         <v>16</v>
       </c>
-      <c r="D23" s="4" t="s">
+      <c r="D23" s="1" t="s">
         <v>28</v>
       </c>
     </row>
     <row r="24" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C24" s="4">
+      <c r="C24" s="1">
         <v>17</v>
       </c>
-      <c r="D24" s="4" t="s">
+      <c r="D24" s="1" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="25" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C25" s="4">
+      <c r="C25" s="1">
         <v>18</v>
       </c>
-      <c r="D25" s="4" t="s">
+      <c r="D25" s="1" t="s">
         <v>30</v>
       </c>
     </row>
     <row r="26" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C26" s="4">
+      <c r="C26" s="1">
         <v>19</v>
       </c>
-      <c r="D26" s="4" t="s">
+      <c r="D26" s="1" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="27" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C27" s="4">
+      <c r="C27" s="1">
         <v>20</v>
       </c>
-      <c r="D27" s="4" t="s">
+      <c r="D27" s="1" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="28" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C28" s="4">
+      <c r="C28" s="1">
         <v>21</v>
       </c>
-      <c r="D28" s="4" t="s">
+      <c r="D28" s="1" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="29" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C29" s="4">
+      <c r="C29" s="1">
         <v>22</v>
       </c>
-      <c r="D29" s="4" t="s">
+      <c r="D29" s="1" t="s">
         <v>34</v>
       </c>
     </row>
     <row r="30" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C30" s="4">
+      <c r="C30" s="1">
         <v>23</v>
       </c>
-      <c r="D30" s="4" t="s">
+      <c r="D30" s="1" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="31" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C31" s="4">
+      <c r="C31" s="1">
         <v>24</v>
       </c>
-      <c r="D31" s="4" t="s">
+      <c r="D31" s="1" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="32" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C32" s="4">
+      <c r="C32" s="1">
         <v>25</v>
       </c>
-      <c r="D32" s="4" t="s">
+      <c r="D32" s="1" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="33" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C33" s="4">
+    <row r="33" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C33" s="1">
         <v>26</v>
       </c>
-      <c r="D33" s="4" t="s">
+      <c r="D33" s="1" t="s">
         <v>38</v>
       </c>
     </row>
-    <row r="34" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C34" s="4">
+    <row r="34" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C34" s="1">
         <v>27</v>
       </c>
-      <c r="D34" s="4" t="s">
+      <c r="D34" s="1" t="s">
         <v>39</v>
       </c>
     </row>
-    <row r="35" spans="3:4" x14ac:dyDescent="0.2">
-      <c r="C35" s="4">
+    <row r="35" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="C35" s="1">
         <v>28</v>
       </c>
-      <c r="D35" s="4" t="s">
+      <c r="D35" s="1" t="s">
         <v>17</v>
+      </c>
+    </row>
+    <row r="36" spans="2:5" ht="68" x14ac:dyDescent="0.2">
+      <c r="C36" s="1">
+        <v>29</v>
+      </c>
+      <c r="D36" s="1" t="s">
+        <v>44</v>
+      </c>
+      <c r="E36" s="2" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="37" spans="2:5" x14ac:dyDescent="0.2">
+      <c r="B37" s="1" t="s">
+        <v>46</v>
       </c>
     </row>
   </sheetData>

--- a/tools/patch-downloader/doc/g2nup.xlsx
+++ b/tools/patch-downloader/doc/g2nup.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Volumes/data/_WORK/music-stack/tools/patch-downloader/doc/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B67DB617-625C-6C40-B844-749B4EC09FB5}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{C02CFB16-2B4F-0245-9E8F-5D98CE4A1708}" xr6:coauthVersionLast="40" xr6:coauthVersionMax="40" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="16300" yWindow="3080" windowWidth="28040" windowHeight="17440" xr2:uid="{2D19A815-05D5-C843-9A0D-957E9B8F95B1}"/>
   </bookViews>
@@ -30,7 +30,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="49" uniqueCount="47">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="55" uniqueCount="53">
   <si>
     <t>Module4</t>
   </si>
@@ -182,6 +182,32 @@
   </si>
   <si>
     <t>Prm2</t>
+  </si>
+  <si>
+    <t>ZOOM original unadorned clean
+sound.</t>
+  </si>
+  <si>
+    <t>Zoom</t>
+  </si>
+  <si>
+    <t>Simulation of the Boss Metal
+Zone, which is characterized by
+long sustain and a powerful lower
+midrange.</t>
+  </si>
+  <si>
+    <t>Boss</t>
+  </si>
+  <si>
+    <t>The 3-channel high gain sound of
+a Diezel Herbert, which is a
+handmade German guitar
+amplifier that allows control of
+three independent channels.</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> Diezel Herbert</t>
   </si>
 </sst>
 </file>
@@ -543,7 +569,7 @@
   <dimension ref="A1:F37"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="A12" workbookViewId="0">
-      <selection activeCell="D37" sqref="D37"/>
+      <selection activeCell="F15" sqref="F15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -551,7 +577,8 @@
     <col min="1" max="3" width="10.83203125" style="1"/>
     <col min="4" max="4" width="25.5" style="1" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="34.33203125" style="1" customWidth="1"/>
-    <col min="6" max="16384" width="10.83203125" style="1"/>
+    <col min="6" max="6" width="13.33203125" style="1" bestFit="1" customWidth="1"/>
+    <col min="7" max="16384" width="10.83203125" style="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:6" x14ac:dyDescent="0.2">
@@ -685,12 +712,18 @@
         <v>43</v>
       </c>
     </row>
-    <row r="15" spans="1:6" x14ac:dyDescent="0.2">
+    <row r="15" spans="1:6" ht="85" x14ac:dyDescent="0.2">
       <c r="C15" s="1">
         <v>8</v>
       </c>
       <c r="D15" s="1" t="s">
         <v>20</v>
+      </c>
+      <c r="E15" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="F15" s="1" t="s">
+        <v>52</v>
       </c>
     </row>
     <row r="16" spans="1:6" x14ac:dyDescent="0.2">
@@ -701,7 +734,7 @@
         <v>21</v>
       </c>
     </row>
-    <row r="17" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="17" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C17" s="1">
         <v>10</v>
       </c>
@@ -709,7 +742,7 @@
         <v>22</v>
       </c>
     </row>
-    <row r="18" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="18" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C18" s="1">
         <v>11</v>
       </c>
@@ -717,7 +750,7 @@
         <v>23</v>
       </c>
     </row>
-    <row r="19" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="19" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C19" s="1">
         <v>12</v>
       </c>
@@ -725,7 +758,7 @@
         <v>24</v>
       </c>
     </row>
-    <row r="20" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="20" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C20" s="1">
         <v>13</v>
       </c>
@@ -733,7 +766,7 @@
         <v>25</v>
       </c>
     </row>
-    <row r="21" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="21" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C21" s="1">
         <v>14</v>
       </c>
@@ -741,7 +774,7 @@
         <v>26</v>
       </c>
     </row>
-    <row r="22" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="22" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C22" s="1">
         <v>15</v>
       </c>
@@ -749,7 +782,7 @@
         <v>27</v>
       </c>
     </row>
-    <row r="23" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="23" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C23" s="1">
         <v>16</v>
       </c>
@@ -757,7 +790,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="24" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="24" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C24" s="1">
         <v>17</v>
       </c>
@@ -765,15 +798,21 @@
         <v>29</v>
       </c>
     </row>
-    <row r="25" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="25" spans="3:6" ht="68" x14ac:dyDescent="0.2">
       <c r="C25" s="1">
         <v>18</v>
       </c>
       <c r="D25" s="1" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="26" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E25" s="2" t="s">
+        <v>49</v>
+      </c>
+      <c r="F25" s="1" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="26" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C26" s="1">
         <v>19</v>
       </c>
@@ -781,15 +820,21 @@
         <v>31</v>
       </c>
     </row>
-    <row r="27" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="27" spans="3:6" ht="34" x14ac:dyDescent="0.2">
       <c r="C27" s="1">
         <v>20</v>
       </c>
       <c r="D27" s="1" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="28" spans="3:4" x14ac:dyDescent="0.2">
+      <c r="E27" s="2" t="s">
+        <v>47</v>
+      </c>
+      <c r="F27" s="1" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="28" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C28" s="1">
         <v>21</v>
       </c>
@@ -797,7 +842,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="29" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="29" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C29" s="1">
         <v>22</v>
       </c>
@@ -805,7 +850,7 @@
         <v>34</v>
       </c>
     </row>
-    <row r="30" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="30" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C30" s="1">
         <v>23</v>
       </c>
@@ -813,7 +858,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="31" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="31" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C31" s="1">
         <v>24</v>
       </c>
@@ -821,7 +866,7 @@
         <v>36</v>
       </c>
     </row>
-    <row r="32" spans="3:4" x14ac:dyDescent="0.2">
+    <row r="32" spans="3:6" x14ac:dyDescent="0.2">
       <c r="C32" s="1">
         <v>25</v>
       </c>
